--- a/images/images_sizing_NEW.xlsx
+++ b/images/images_sizing_NEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB3946A-89FA-274B-AC49-FBC167AB48F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2DD68-6BBB-5B47-B24C-8B5950BE01F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="760" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,11 +464,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2000</v>
+        <v>1172</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>1123.4375</v>
+        <v>658.33437500000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing_NEW.xlsx
+++ b/images/images_sizing_NEW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2DD68-6BBB-5B47-B24C-8B5950BE01F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8814B17E-4270-E04A-89E9-3742B3E33B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="760" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -464,20 +465,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1172</v>
+        <v>1440</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>658.33437500000002</v>
+        <v>808.87500000000011</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>B3/B1*A1</f>
-        <v>745.92489568845622</v>
+        <v>765.50764951321287</v>
       </c>
       <c r="B3" s="4">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
